--- a/glmnet_fitting_options.xlsx
+++ b/glmnet_fitting_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\R_Snippet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8B74E7-EC9B-4968-8D88-D097ADE31432}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804B0A7C-8544-4E2A-990B-7F4A67E7168B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>is.sparse</t>
   </si>
@@ -140,6 +140,147 @@
   </si>
   <si>
     <t>mrelnet</t>
+  </si>
+  <si>
+    <t>説明変数の行列</t>
+    <rPh sb="0" eb="4">
+      <t>セツメイヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疎行列であるかの指定</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観測値に対する重み</t>
+    <rPh sb="0" eb="2">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:covariance, 2:naïve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1とL2に対する重みの調整パラメータ</t>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明変数の数</t>
+    <rPh sb="0" eb="4">
+      <t>セツメイヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lambdaの数</t>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収束判定の閾値</t>
+    <rPh sb="0" eb="4">
+      <t>シュウソクハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切片（Intercept）を含めるかの指定</t>
+    <rPh sb="0" eb="2">
+      <t>セッペン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復回数の上限</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最適化の手法</t>
+    <rPh sb="0" eb="3">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>family</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -504,33 +645,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE046641-78D3-4B62-BE0F-D14EB4BF8F8E}">
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="str">
-        <f>I2</f>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="str">
+        <f>J2</f>
         <v>elnet</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:G2" si="0">J2</f>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:H2" si="0">K2</f>
         <v>fishnet</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>lognet</v>
       </c>
       <c r="E2" s="1" t="str">
         <f t="shared" si="0"/>
@@ -538,45 +676,48 @@
       </c>
       <c r="F2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>coxnet</v>
+        <v>lognet</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>coxnet</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>mrelnet</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f>IF($A3=I3,"〇", "-")</f>
-        <v>〇</v>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:G3" si="1">IF($A3=J3,"〇", "-")</f>
+        <f>IF($A3=J3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:H3" si="1">IF($A3=K3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E3" s="1" t="str">
@@ -591,8 +732,9 @@
         <f t="shared" si="1"/>
         <v>〇</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>〇</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -609,37 +751,40 @@
       <c r="N3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B29" si="2">IF($A4=I4,"〇", "-")</f>
-        <v>〇</v>
+      <c r="B4" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C29" si="3">IF($A4=J4,"〇", "-")</f>
+        <f t="shared" ref="C4:C29" si="2">IF($A4=J4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D29" si="4">IF($A4=K4,"〇", "-")</f>
+        <f t="shared" ref="D4:D29" si="3">IF($A4=K4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E29" si="5">IF($A4=L4,"〇", "-")</f>
+        <f t="shared" ref="E4:E29" si="4">IF($A4=L4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F29" si="6">IF($A4=M4,"〇", "-")</f>
+        <f t="shared" ref="F4:F29" si="5">IF($A4=M4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G29" si="7">IF($A4=N4,"〇", "-")</f>
-        <v>〇</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
+        <f t="shared" ref="G4:G29" si="6">IF($A4=N4,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ref="H4:H29" si="7">IF($A4=O4,"〇", "-")</f>
+        <v>〇</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
@@ -656,37 +801,37 @@
       <c r="N4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
@@ -703,37 +848,37 @@
       <c r="N5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
@@ -750,37 +895,37 @@
       <c r="N6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J7" t="s">
         <v>3</v>
@@ -797,37 +942,40 @@
       <c r="N7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J8" t="s">
         <v>4</v>
@@ -844,37 +992,40 @@
       <c r="N8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B9" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -891,69 +1042,75 @@
       <c r="N9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B10" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>〇</v>
+      </c>
+      <c r="D10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="E10" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="F10" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="H10" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B11" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -970,37 +1127,40 @@
       <c r="N11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B12" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -1017,37 +1177,40 @@
       <c r="N12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B13" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J13" t="s">
         <v>9</v>
@@ -1064,37 +1227,37 @@
       <c r="N13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -1111,37 +1274,37 @@
       <c r="N14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -1158,37 +1321,37 @@
       <c r="N15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -1205,37 +1368,37 @@
       <c r="N16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1252,37 +1415,37 @@
       <c r="N17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1299,37 +1462,40 @@
       <c r="N18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B19" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1346,37 +1512,37 @@
       <c r="N19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -1393,37 +1559,37 @@
       <c r="N20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -1440,37 +1606,40 @@
       <c r="N21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
@@ -1487,37 +1656,37 @@
       <c r="N22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
-      </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I23" t="s">
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -1534,69 +1703,72 @@
       <c r="N23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="C24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="D24" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="E24" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="F24" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="G24" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
+      </c>
+      <c r="O24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>〇</v>
+      </c>
+      <c r="G25" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
@@ -1607,40 +1779,43 @@
       <c r="L25" t="s">
         <v>20</v>
       </c>
-      <c r="N25" t="s">
+      <c r="M25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B26" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -1657,121 +1832,133 @@
       <c r="N26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>〇</v>
+      <c r="B27" t="s">
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="I27" t="s">
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>〇</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>〇</v>
       </c>
       <c r="J27" t="s">
         <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="D28" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>〇</v>
-      </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>〇</v>
+      </c>
+      <c r="G28" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="H28" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="D29" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>〇</v>
-      </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="F29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>〇</v>
+      </c>
+      <c r="G29" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="H29" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>31</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>31</v>
       </c>
     </row>

--- a/glmnet_fitting_options.xlsx
+++ b/glmnet_fitting_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\R_Snippet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804B0A7C-8544-4E2A-990B-7F4A67E7168B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97237393-FEEC-4665-B264-AB14CA552BDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
   <si>
     <t>is.sparse</t>
   </si>
@@ -280,6 +280,45 @@
   </si>
   <si>
     <t>family</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルに含まれる変数の上限。ne = dfmax = nvars + 1</t>
+    <rPh sb="4" eb="5">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各変数に対する罰則の重み（penalty.factor）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バッソク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>standardizeするかの指定</t>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -647,14 +686,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE046641-78D3-4B62-BE0F-D14EB4BF8F8E}">
   <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="12.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.5" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
@@ -1282,6 +1321,9 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>〇</v>
@@ -1376,6 +1418,9 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>〇</v>
@@ -1663,6 +1708,9 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="2"/>

--- a/glmnet_fitting_options.xlsx
+++ b/glmnet_fitting_options.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\R_Snippet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinobu.nakahashi/Documents/GitHub/R_Snippet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97237393-FEEC-4665-B264-AB14CA552BDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE49142-E723-9F4B-944B-0DB3B51E0A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="56">
   <si>
     <t>is.sparse</t>
   </si>
@@ -122,9 +125,6 @@
   <si>
     <t>fishnet</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lognet</t>
   </si>
   <si>
     <t>lognet</t>
@@ -318,6 +318,71 @@
     <t>standardizeするかの指定</t>
     <rPh sb="15" eb="17">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疎行列における非ゼロの要素の行番号</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ソギョウレツ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒゼロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ギョウバンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的変数の行列</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">モクテキヘンスウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ギョウレツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疎行列における非ゼロの要素の累積個数</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ソギョウレツ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒゼロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ルイセキ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">コスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ゼロとする変数の個数の上限？</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒゼロ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヘンスウノ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">コスウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ジョウゲン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,29 +749,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE046641-78D3-4B62-BE0F-D14EB4BF8F8E}">
-  <dimension ref="A2:O29"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="str">
-        <f>J2</f>
+        <f t="shared" ref="C2:E2" si="0">I2</f>
         <v>elnet</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:H2" si="0">K2</f>
+        <f t="shared" si="0"/>
         <v>fishnet</v>
       </c>
       <c r="E2" s="1" t="str">
@@ -714,66 +779,58 @@
         <v>lognet</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>lognet</v>
+        <f>L2</f>
+        <v>coxnet</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>coxnet</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>M2</f>
         <v>mrelnet</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="str">
+        <f>IF($A3=I3,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <f>IF($A3=J3,"〇", "-")</f>
         <v>〇</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:H3" si="1">IF($A3=K3,"〇", "-")</f>
-        <v>〇</v>
-      </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($A3=K3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($A3=L3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>〇</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>〇</v>
+        <f>IF($A3=M3,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -787,43 +844,36 @@
       <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C29" si="2">IF($A4=J4,"〇", "-")</f>
+        <f>IF($A4=I4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D29" si="3">IF($A4=K4,"〇", "-")</f>
+        <f>IF($A4=J4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E29" si="4">IF($A4=L4,"〇", "-")</f>
+        <f>IF($A4=K4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F29" si="5">IF($A4=M4,"〇", "-")</f>
+        <f>IF($A4=L4,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G29" si="6">IF($A4=N4,"〇", "-")</f>
-        <v>〇</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H29" si="7">IF($A4=O4,"〇", "-")</f>
-        <v>〇</v>
+        <f>IF($A4=M4,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
@@ -837,40 +887,36 @@
       <c r="M4" t="s">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A5=I5,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A5=J5,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A5=K5,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A5=L5,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A5=M5,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
@@ -884,40 +930,36 @@
       <c r="M5" t="s">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A6=I6,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A6=J6,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A6=K6,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A6=L6,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A6=M6,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
@@ -931,40 +973,36 @@
       <c r="M6" t="s">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A7=I7,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A7=J7,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A7=K7,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A7=L7,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A7=M7,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>3</v>
@@ -978,43 +1016,36 @@
       <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A8=I8,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A8=J8,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A8=K8,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A8=L8,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A8=M8,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>4</v>
@@ -1028,43 +1059,36 @@
       <c r="M8" t="s">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A9=I9,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A9=J9,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A9=K9,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A9=L9,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A9=M9,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -1078,78 +1102,67 @@
       <c r="M9" t="s">
         <v>5</v>
       </c>
-      <c r="N9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A10=I10,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A10=J10,"〇", "-")</f>
         <v>-</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A10=K10,"〇", "-")</f>
         <v>-</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A10=L10,"〇", "-")</f>
         <v>-</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF($A10=M10,"〇", "-")</f>
         <v>-</v>
       </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A11=I11,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A11=J11,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A11=K11,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A11=L11,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A11=M11,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -1163,43 +1176,36 @@
       <c r="M11" t="s">
         <v>7</v>
       </c>
-      <c r="N11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A12=I12,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A12=J12,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A12=K12,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A12=L12,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A12=M12,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -1213,43 +1219,36 @@
       <c r="M12" t="s">
         <v>8</v>
       </c>
-      <c r="N12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A13=I13,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A13=J13,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A13=K13,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A13=L13,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A13=M13,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
       </c>
       <c r="J13" t="s">
         <v>9</v>
@@ -1263,40 +1262,36 @@
       <c r="M13" t="s">
         <v>9</v>
       </c>
-      <c r="N13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A14=I14,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A14=J14,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A14=K14,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A14=L14,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A14=M14,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -1310,43 +1305,36 @@
       <c r="M14" t="s">
         <v>10</v>
       </c>
-      <c r="N14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A15=I15,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A15=J15,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A15=K15,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A15=L15,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A15=M15,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -1360,40 +1348,36 @@
       <c r="M15" t="s">
         <v>11</v>
       </c>
-      <c r="N15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A16=I16,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A16=J16,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A16=K16,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A16=L16,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A16=M16,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -1407,43 +1391,36 @@
       <c r="M16" t="s">
         <v>12</v>
       </c>
-      <c r="N16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A17=I17,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A17=J17,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A17=K17,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A17=L17,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A17=M17,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1457,40 +1434,36 @@
       <c r="M17" t="s">
         <v>13</v>
       </c>
-      <c r="N17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A18=I18,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A18=J18,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A18=K18,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A18=L18,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A18=M18,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1504,43 +1477,36 @@
       <c r="M18" t="s">
         <v>14</v>
       </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A19=I19,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A19=J19,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A19=K19,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A19=L19,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A19=M19,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1554,40 +1520,36 @@
       <c r="M19" t="s">
         <v>15</v>
       </c>
-      <c r="N19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A20=I20,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A20=J20,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A20=K20,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A20=L20,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A20=M20,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -1601,40 +1563,36 @@
       <c r="M20" t="s">
         <v>16</v>
       </c>
-      <c r="N20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A21=I21,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A21=J21,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A21=K21,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A21=L21,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A21=M21,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -1648,43 +1606,36 @@
       <c r="M21" t="s">
         <v>17</v>
       </c>
-      <c r="N21" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A22=I22,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A22=J22,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A22=K22,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A22=L22,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A22=M22,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
@@ -1698,43 +1649,36 @@
       <c r="M22" t="s">
         <v>18</v>
       </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A23=I23,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A23=J23,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A23=K23,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A23=L23,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A23=M23,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -1748,75 +1692,64 @@
       <c r="M23" t="s">
         <v>19</v>
       </c>
-      <c r="N23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A24=I24,"〇", "-")</f>
         <v>-</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A24=J24,"〇", "-")</f>
         <v>-</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A24=K24,"〇", "-")</f>
         <v>-</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A24=L24,"〇", "-")</f>
         <v>-</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
-      </c>
-      <c r="O24" t="s">
+        <f>IF($A24=M24,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="M24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A25=I25,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A25=J25,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A25=K25,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>〇</v>
+        <f>IF($A25=L25,"〇", "-")</f>
+        <v>-</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A25=M25,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
@@ -1824,46 +1757,39 @@
       <c r="K25" t="s">
         <v>20</v>
       </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
-      <c r="O25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A26=I26,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A26=J26,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A26=K26,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A26=L26,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A26=M26,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -1877,137 +1803,110 @@
       <c r="M26" t="s">
         <v>21</v>
       </c>
-      <c r="N26" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($A27=I27,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($A27=J27,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($A27=K27,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($A27=L27,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>〇</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>〇</v>
+        <f>IF($A27=M27,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
       </c>
       <c r="J27" t="s">
         <v>25</v>
       </c>
       <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
-        <v>22</v>
-      </c>
       <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" t="s">
         <v>25</v>
       </c>
-      <c r="O27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>IF($A28=I28,"〇", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>IF($A28=J28,"〇", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>IF($A28=K28,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>IF($A28=L28,"〇", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>IF($A28=M28,"〇", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="C29" s="1" t="str">
+        <f>IF($A29=I29,"〇", "-")</f>
         <v>-</v>
       </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="D29" s="1" t="str">
+        <f>IF($A29=J29,"〇", "-")</f>
         <v>-</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>〇</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>〇</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="E29" s="1" t="str">
+        <f>IF($A29=K29,"〇", "-")</f>
+        <v>〇</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>IF($A29=L29,"〇", "-")</f>
         <v>-</v>
       </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="G29" s="1" t="str">
+        <f>IF($A29=M29,"〇", "-")</f>
         <v>-</v>
       </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>〇</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>〇</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="L29" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" t="s">
-        <v>31</v>
+      <c r="K29" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/glmnet_fitting_options.xlsx
+++ b/glmnet_fitting_options.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinobu.nakahashi/Documents/GitHub/R_Snippet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE49142-E723-9F4B-944B-0DB3B51E0A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A33BD9-622C-7148-AD37-29E616B4C0BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="glmnet" sheetId="1" r:id="rId1"/>
+    <sheet name="elnet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
   <si>
     <t>is.sparse</t>
   </si>
@@ -112,31 +112,31 @@
   </si>
   <si>
     <t>maxit</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>elnet</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>fishnet</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>lognet</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>family</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>coxnet</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>mrelnet</t>
@@ -149,7 +149,7 @@
     <rPh sb="5" eb="7">
       <t>ギョウレツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>疎行列であるかの指定</t>
@@ -162,7 +162,7 @@
     <rPh sb="8" eb="10">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>観測値に対する重み</t>
@@ -178,15 +178,15 @@
     <rPh sb="7" eb="8">
       <t>オモ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>オフセット</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1:covariance, 2:naïve</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>L1とL2に対する重みの調整パラメータ</t>
@@ -199,14 +199,14 @@
     <rPh sb="12" eb="14">
       <t>チョウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>レコード数</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>説明変数の数</t>
@@ -216,14 +216,14 @@
     <rPh sb="5" eb="6">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>lambdaの数</t>
     <rPh sb="7" eb="8">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>収束判定の閾値</t>
@@ -233,7 +233,7 @@
     <rPh sb="5" eb="7">
       <t>イキチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切片（Intercept）を含めるかの指定</t>
@@ -246,14 +246,14 @@
     <rPh sb="19" eb="21">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="3">
       <t>ヘンスウメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>反復回数の上限</t>
@@ -266,7 +266,7 @@
     <rPh sb="5" eb="7">
       <t>ジョウゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>最適化の手法</t>
@@ -276,11 +276,11 @@
     <rPh sb="4" eb="6">
       <t>シュホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>family</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>モデルに含まれる変数の上限。ne = dfmax = nvars + 1</t>
@@ -293,7 +293,7 @@
     <rPh sb="11" eb="13">
       <t>ジョウゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各変数に対する罰則の重み（penalty.factor）</t>
@@ -312,14 +312,14 @@
     <rPh sb="10" eb="11">
       <t>オモ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>standardizeするかの指定</t>
     <rPh sb="15" eb="17">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>疎行列における非ゼロの要素の行番号</t>
@@ -335,7 +335,7 @@
     <rPh sb="14" eb="17">
       <t xml:space="preserve">ギョウバンゴウ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>目的変数の行列</t>
@@ -345,11 +345,11 @@
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ギョウレツ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>疎行列における非ゼロの要素の累積個数</t>
@@ -368,7 +368,7 @@
     <rPh sb="16" eb="18">
       <t xml:space="preserve">コスウ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>非ゼロとする変数の個数の上限？</t>
@@ -384,20 +384,94 @@
     <rPh sb="12" eb="14">
       <t xml:space="preserve">ジョウゲン </t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jerr</t>
+  </si>
+  <si>
+    <t>nlp</t>
+  </si>
+  <si>
+    <t>almo</t>
+  </si>
+  <si>
+    <t>alm</t>
+  </si>
+  <si>
+    <t>rsqo</t>
+  </si>
+  <si>
+    <t>rsq</t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>nin</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>lmu</t>
+  </si>
+  <si>
+    <t>xv</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>vlam</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ju</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>parm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -423,21 +497,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{E168BCF3-DE0B-1542-82D0-4EE821ED9203}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,11 +832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE046641-78D3-4B62-BE0F-D14EB4BF8F8E}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
@@ -765,7 +846,7 @@
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:E2" si="0">I2</f>
         <v>elnet</v>
@@ -802,7 +883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -810,23 +891,23 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IF($A3=I3,"〇", "-")</f>
+        <f t="shared" ref="C3:C29" si="1">IF($A3=I3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>IF($A3=J3,"〇", "-")</f>
+        <f t="shared" ref="D3:D29" si="2">IF($A3=J3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF($A3=K3,"〇", "-")</f>
+        <f t="shared" ref="E3:E29" si="3">IF($A3=K3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($A3=L3,"〇", "-")</f>
+        <f t="shared" ref="F3:F29" si="4">IF($A3=L3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($A3=M3,"〇", "-")</f>
+        <f t="shared" ref="G3:G29" si="5">IF($A3=M3,"〇", "-")</f>
         <v>〇</v>
       </c>
       <c r="I3" t="s">
@@ -845,7 +926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -853,23 +934,23 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IF($A4=I4,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>IF($A4=J4,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF($A4=K4,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($A4=L4,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($A4=M4,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I4" t="s">
@@ -888,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -896,23 +977,23 @@
         <v>54</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IF($A5=I5,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>IF($A5=J5,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF($A5=K5,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($A5=L5,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($A5=M5,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I5" t="s">
@@ -931,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -939,23 +1020,23 @@
         <v>51</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IF($A6=I6,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IF($A6=J6,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF($A6=K6,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($A6=L6,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($A6=M6,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I6" t="s">
@@ -974,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -982,23 +1063,23 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IF($A7=I7,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF($A7=J7,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF($A7=K7,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($A7=L7,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($A7=M7,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I7" t="s">
@@ -1017,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1025,23 +1106,23 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IF($A8=I8,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>IF($A8=J8,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF($A8=K8,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($A8=L8,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($A8=M8,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I8" t="s">
@@ -1060,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1068,23 +1149,23 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IF($A9=I9,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IF($A9=J9,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF($A9=K9,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($A9=L9,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($A9=M9,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I9" t="s">
@@ -1103,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1111,30 +1192,30 @@
         <v>37</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IF($A10=I10,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IF($A10=J10,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF($A10=K10,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($A10=L10,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($A10=M10,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1142,23 +1223,23 @@
         <v>38</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IF($A11=I11,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IF($A11=J11,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF($A11=K11,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($A11=L11,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($A11=M11,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I11" t="s">
@@ -1177,7 +1258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1185,23 +1266,23 @@
         <v>39</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IF($A12=I12,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF($A12=J12,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF($A12=K12,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($A12=L12,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($A12=M12,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I12" t="s">
@@ -1220,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1228,23 +1309,23 @@
         <v>40</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IF($A13=I13,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IF($A13=J13,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF($A13=K13,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($A13=L13,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($A13=M13,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I13" t="s">
@@ -1263,7 +1344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1271,23 +1352,23 @@
         <v>53</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IF($A14=I14,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IF($A14=J14,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF($A14=K14,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($A14=L14,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($A14=M14,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I14" t="s">
@@ -1306,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1314,23 +1395,23 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IF($A15=I15,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IF($A15=J15,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF($A15=K15,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($A15=L15,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($A15=M15,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I15" t="s">
@@ -1349,7 +1430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1357,23 +1438,23 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IF($A16=I16,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IF($A16=J16,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF($A16=K16,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($A16=L16,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($A16=M16,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I16" t="s">
@@ -1392,7 +1473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1400,23 +1481,23 @@
         <v>48</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IF($A17=I17,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IF($A17=J17,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF($A17=K17,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($A17=L17,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($A17=M17,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I17" t="s">
@@ -1435,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1443,23 +1524,23 @@
         <v>55</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IF($A18=I18,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IF($A18=J18,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF($A18=K18,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($A18=L18,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($A18=M18,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I18" t="s">
@@ -1478,7 +1559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1486,23 +1567,23 @@
         <v>41</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IF($A19=I19,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IF($A19=J19,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF($A19=K19,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($A19=L19,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($A19=M19,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I19" t="s">
@@ -1521,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1529,23 +1610,23 @@
         <v>53</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>IF($A20=I20,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>IF($A20=J20,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF($A20=K20,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($A20=L20,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($A20=M20,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I20" t="s">
@@ -1564,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1572,23 +1653,23 @@
         <v>53</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>IF($A21=I21,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>IF($A21=J21,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IF($A21=K21,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($A21=L21,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($A21=M21,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I21" t="s">
@@ -1607,7 +1688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1615,23 +1696,23 @@
         <v>42</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>IF($A22=I22,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>IF($A22=J22,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF($A22=K22,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($A22=L22,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($A22=M22,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I22" t="s">
@@ -1650,7 +1731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1658,23 +1739,23 @@
         <v>50</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>IF($A23=I23,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>IF($A23=J23,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IF($A23=K23,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($A23=L23,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($A23=M23,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I23" t="s">
@@ -1693,35 +1774,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>IF($A24=I24,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>IF($A24=J24,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IF($A24=K24,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($A24=L24,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($A24=M24,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="M24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1729,23 +1810,23 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>IF($A25=I25,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>IF($A25=J25,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IF($A25=K25,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($A25=L25,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($A25=M25,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I25" t="s">
@@ -1761,7 +1842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1769,23 +1850,23 @@
         <v>44</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>IF($A26=I26,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>IF($A26=J26,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IF($A26=K26,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($A26=L26,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($A26=M26,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I26" t="s">
@@ -1804,7 +1885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1812,23 +1893,23 @@
         <v>45</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>IF($A27=I27,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>〇</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>IF($A27=J27,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>〇</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IF($A27=K27,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($A27=L27,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>〇</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($A27=M27,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>〇</v>
       </c>
       <c r="I27" t="s">
@@ -1847,7 +1928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1855,30 +1936,30 @@
         <v>46</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>IF($A28=I28,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>IF($A28=J28,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IF($A28=K28,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($A28=L28,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($A28=M28,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="K28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1886,23 +1967,23 @@
         <v>47</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>IF($A29=I29,"〇", "-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>IF($A29=J29,"〇", "-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IF($A29=K29,"〇", "-")</f>
+        <f t="shared" si="3"/>
         <v>〇</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($A29=L29,"〇", "-")</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($A29=M29,"〇", "-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="K29" t="s">
@@ -1910,8 +1991,225 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174D6842-7C60-2E4A-BEE5-D3F5B10A48D3}">
+  <dimension ref="B3:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/glmnet_fitting_options.xlsx
+++ b/glmnet_fitting_options.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinobu.nakahashi/Documents/GitHub/R_Snippet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A33BD9-622C-7148-AD37-29E616B4C0BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58901B0E-DA2A-C142-9622-18380067C4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
   </bookViews>
   <sheets>
     <sheet name="glmnet" sheetId="1" r:id="rId1"/>
     <sheet name="elnet" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="101">
   <si>
     <t>is.sparse</t>
   </si>
@@ -451,13 +453,128 @@
   </si>
   <si>
     <t>parm</t>
+  </si>
+  <si>
+    <t>ju</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>flmin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>omb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alm には lambda の値が入り、更新されている</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ハイル </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alm*bta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lambda * alpha</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>weight を乗じた x の二乗和</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ジョウジタ </t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">ニジョウワ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>k 番目の変数に対する罰則の重みでデフォルトは 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cl = rbind(lower.limits, upper.limits)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上限・下限</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジョウゲン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ninが入っている</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハイッテイル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maxi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -475,6 +592,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
@@ -512,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE046641-78D3-4B62-BE0F-D14EB4BF8F8E}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2001,11 +2125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174D6842-7C60-2E4A-BEE5-D3F5B10A48D3}">
   <dimension ref="B3:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -2212,4 +2336,318 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ED195B-CE6D-A343-8CE5-77FBDDE927BC}">
+  <dimension ref="B3:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A15FCA5-DF80-BA44-88BF-F30F7508E21E}">
+  <dimension ref="B2:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/glmnet_fitting_options.xlsx
+++ b/glmnet_fitting_options.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinobu.nakahashi/Documents/GitHub/R_Snippet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58901B0E-DA2A-C142-9622-18380067C4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA465B-5F8E-894A-A349-63302A74829C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{A694EC4F-3A43-4053-9B8E-07D02616A158}"/>
   </bookViews>
   <sheets>
     <sheet name="glmnet" sheetId="1" r:id="rId1"/>
     <sheet name="elnet" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="分岐" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
   <si>
     <t>is.sparse</t>
   </si>
@@ -114,31 +115,31 @@
   </si>
   <si>
     <t>maxit</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>elnet</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>fishnet</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>lognet</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>family</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>coxnet</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>mrelnet</t>
@@ -151,7 +152,7 @@
     <rPh sb="5" eb="7">
       <t>ギョウレツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>疎行列であるかの指定</t>
@@ -164,7 +165,7 @@
     <rPh sb="8" eb="10">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>観測値に対する重み</t>
@@ -180,15 +181,15 @@
     <rPh sb="7" eb="8">
       <t>オモ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>オフセット</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1:covariance, 2:naïve</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>L1とL2に対する重みの調整パラメータ</t>
@@ -201,14 +202,14 @@
     <rPh sb="12" eb="14">
       <t>チョウセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>レコード数</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>説明変数の数</t>
@@ -218,14 +219,14 @@
     <rPh sb="5" eb="6">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>lambdaの数</t>
     <rPh sb="7" eb="8">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>収束判定の閾値</t>
@@ -235,7 +236,7 @@
     <rPh sb="5" eb="7">
       <t>イキチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>切片（Intercept）を含めるかの指定</t>
@@ -248,14 +249,14 @@
     <rPh sb="19" eb="21">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="3">
       <t>ヘンスウメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>反復回数の上限</t>
@@ -268,7 +269,7 @@
     <rPh sb="5" eb="7">
       <t>ジョウゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>最適化の手法</t>
@@ -278,11 +279,11 @@
     <rPh sb="4" eb="6">
       <t>シュホウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>family</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>モデルに含まれる変数の上限。ne = dfmax = nvars + 1</t>
@@ -295,7 +296,7 @@
     <rPh sb="11" eb="13">
       <t>ジョウゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>各変数に対する罰則の重み（penalty.factor）</t>
@@ -314,14 +315,14 @@
     <rPh sb="10" eb="11">
       <t>オモ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>standardizeするかの指定</t>
     <rPh sb="15" eb="17">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>疎行列における非ゼロの要素の行番号</t>
@@ -337,7 +338,7 @@
     <rPh sb="14" eb="17">
       <t xml:space="preserve">ギョウバンゴウ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>目的変数の行列</t>
@@ -347,11 +348,11 @@
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ギョウレツ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>疎行列における非ゼロの要素の累積個数</t>
@@ -370,7 +371,7 @@
     <rPh sb="16" eb="18">
       <t xml:space="preserve">コスウ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>非ゼロとする変数の個数の上限？</t>
@@ -386,7 +387,7 @@
     <rPh sb="12" eb="14">
       <t xml:space="preserve">ジョウゲン </t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>jerr</t>
@@ -456,31 +457,31 @@
   </si>
   <si>
     <t>ju</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>g</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>bta</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>flmin</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>alm</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>alf</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>omb</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>alm には lambda の値が入り、更新されている</t>
@@ -493,31 +494,27 @@
     <rPh sb="20" eb="22">
       <t xml:space="preserve">コウシン </t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ab</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>alm*bta</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>lambda</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>alpha</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>lambda * alpha</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>xv</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>weight を乗じた x の二乗和</t>
@@ -527,23 +524,23 @@
     <rPh sb="15" eb="18">
       <t xml:space="preserve">ニジョウワ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>vp</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>k 番目の変数に対する罰則の重みでデフォルトは 1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>cl</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>cl = rbind(lower.limits, upper.limits)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>上限・下限</t>
@@ -553,34 +550,125 @@
     <rPh sb="3" eb="5">
       <t>カゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>mm</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ninが入っている</t>
     <rPh sb="4" eb="5">
       <t xml:space="preserve">ハイッテイル </t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>maxi</t>
+  </si>
+  <si>
+    <t>1-bta</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変数にバラつきがあるか。これをもとにスキップしたりする</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘンスウニ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>L1 と L2 の配分パラメータ。alpha</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ハイブン </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ループが3回目以降</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カイメ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>alm=0.0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ループが2回目</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カイメ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>goto 10331</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>alm=big</t>
+  </si>
+  <si>
+    <t>ループが1回目</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カイメ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lambdaの指定がない</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シテイガ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>goto 10291</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>alm = ulam(m)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lambda の指定がある</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シテイガ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>alm -&gt; lambda, alf -&gt; alpha?</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -603,6 +691,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -621,28 +716,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{E168BCF3-DE0B-1542-82D0-4EE821ED9203}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{17201257-02F8-E441-A5A8-6CD7018583FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE046641-78D3-4B62-BE0F-D14EB4BF8F8E}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2115,7 +2217,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2333,7 +2435,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2342,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ED195B-CE6D-A343-8CE5-77FBDDE927BC}">
   <dimension ref="B3:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2352,6 +2454,9 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -2362,8 +2467,11 @@
       <c r="B5" t="s">
         <v>80</v>
       </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2391,6 +2499,9 @@
       <c r="B9" t="s">
         <v>84</v>
       </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
@@ -2400,46 +2511,46 @@
         <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
         <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2449,7 +2560,7 @@
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2568,7 +2679,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -2647,7 +2758,84 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CCC84F-00C7-D84C-9867-9D14BB43FAD6}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>